--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_8130B0010B1B9576EC8C7CF4E7EA4577E13256D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D230F9-D30D-4A8C-BD03-747530A154AB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +70,6 @@
     <t>D.Hilliard</t>
   </si>
   <si>
-    <t>A.Brown</t>
-  </si>
-  <si>
     <t>C.Rogers</t>
   </si>
   <si>
@@ -102,13 +116,16 @@
   </si>
   <si>
     <t>G.Swaim</t>
+  </si>
+  <si>
+    <t>J.Jones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +173,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -171,6 +202,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +288,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +340,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -522,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -562,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -602,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -622,35 +699,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -662,18 +739,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -682,9 +759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -693,32 +770,12 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -728,37 +785,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -784,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -810,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -836,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -862,102 +921,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -966,160 +1025,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="H15">
         <v>4</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_8130B0010B1B9576EC8C7CF4E7EA4577E13256D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D230F9-D30D-4A8C-BD03-747530A154AB}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_8130B0010B1B9576EC8C7CF4E7EA4577E13256D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58EBDF7-4387-45F1-93DD-C4756D7059CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>J.McNichols</t>
-  </si>
-  <si>
-    <t>M.Sargent</t>
   </si>
   <si>
     <t>K.Blasingame</t>
@@ -534,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +598,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -610,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -621,7 +618,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -630,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -641,73 +638,73 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -721,16 +718,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -750,32 +747,12 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>0</v>
       </c>
     </row>
@@ -799,22 +776,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -848,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -874,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -900,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -926,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -952,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -978,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1004,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1030,7 +1007,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1056,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -1082,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1108,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -1134,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1160,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>42</v>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_8130B0010B1B9576EC8C7CF4E7EA4577E13256D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58EBDF7-4387-45F1-93DD-C4756D7059CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +80,12 @@
     <t>RZ Comp</t>
   </si>
   <si>
+    <t>J.Jones</t>
+  </si>
+  <si>
+    <t>R.McMath</t>
+  </si>
+  <si>
     <t>D.Fitzpatrick</t>
   </si>
   <si>
@@ -113,16 +102,13 @@
   </si>
   <si>
     <t>G.Swaim</t>
-  </si>
-  <si>
-    <t>J.Jones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,27 +156,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -199,14 +171,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -253,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,27 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,24 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,16 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -567,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -584,21 +510,21 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -616,9 +542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -636,38 +562,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -676,9 +602,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -696,9 +622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -716,9 +642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -736,9 +662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -762,16 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -802,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -820,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -846,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -854,10 +778,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -866,13 +790,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -880,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -898,125 +822,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1025,137 +949,163 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>21</v>
       </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
       <c r="D14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_D6709318FE2B57B7BBC608D7F8EA4577E1329744" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE903E80-6900-40DD-A75B-9B2C4B8C73DE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -102,13 +119,16 @@
   </si>
   <si>
     <t>G.Swaim</t>
+  </si>
+  <si>
+    <t>A.Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +176,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -171,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -490,19 +568,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,19 +588,19 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -562,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,19 +648,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,19 +668,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -622,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -642,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -662,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -688,14 +766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -726,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -738,13 +818,13 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -770,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -778,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -796,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,10 +884,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -830,7 +910,7 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>39</v>
@@ -842,13 +922,13 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -856,10 +936,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -874,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -882,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -900,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -926,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -952,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -960,25 +1040,25 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -986,13 +1066,13 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1004,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1012,10 +1092,10 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1024,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1038,10 +1118,10 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1056,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1064,10 +1144,10 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1076,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1106,6 +1186,32 @@
       </c>
       <c r="H16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_D6709318FE2B57B7BBC608D7F8EA4577E1329744" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE903E80-6900-40DD-A75B-9B2C4B8C73DE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C85C921209BB1B3FB32BB275EEEA4577E1328132" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF3AA469-7FDC-4CD4-A729-E6A7D31F0E0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,12 @@
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -97,7 +86,7 @@
     <t>RZ Comp</t>
   </si>
   <si>
-    <t>J.Jones</t>
+    <t>A.Brown</t>
   </si>
   <si>
     <t>R.McMath</t>
@@ -119,9 +108,6 @@
   </si>
   <si>
     <t>G.Swaim</t>
-  </si>
-  <si>
-    <t>A.Brown</t>
   </si>
 </sst>
 </file>
@@ -153,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,27 +162,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -539,7 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -568,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -588,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,16 +622,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>17</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -770,7 +744,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -818,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -829,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -855,25 +829,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -881,25 +855,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,22 +881,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -933,74 +907,74 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1008,97 +982,97 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1112,48 +1086,48 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>6</v>
@@ -1164,54 +1138,54 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C85C921209BB1B3FB32BB275EEEA4577E1328132" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF3AA469-7FDC-4CD4-A729-E6A7D31F0E0E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -59,12 +53,18 @@
     <t>C.Rogers</t>
   </si>
   <si>
+    <t>R.Davis</t>
+  </si>
+  <si>
     <t>C.Batson</t>
   </si>
   <si>
     <t>M.Johnson</t>
   </si>
   <si>
+    <t>M.Pruitt</t>
+  </si>
+  <si>
     <t>T.Hudson</t>
   </si>
   <si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>A.Firkser</t>
-  </si>
-  <si>
-    <t>M.Pruitt</t>
   </si>
   <si>
     <t>G.Swaim</t>
@@ -113,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +174,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,27 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,24 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,16 +461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -548,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,16 +516,16 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -594,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -614,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -622,19 +573,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -642,19 +593,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -674,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -694,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -702,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -714,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -725,12 +676,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -740,39 +731,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -798,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -824,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -850,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -876,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -884,16 +873,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -902,24 +891,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -928,18 +917,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -954,38 +943,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1006,12 +995,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -1032,12 +1021,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -1046,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1058,12 +1047,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1084,38 +1073,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1136,38 +1125,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
       <c r="C17">
         <v>2</v>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>A.Brown</t>
+  </si>
+  <si>
+    <t>J.Jones</t>
   </si>
   <si>
     <t>R.McMath</t>
@@ -496,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -573,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -593,16 +596,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>11</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -732,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -795,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -847,11 +850,11 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -859,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -873,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -899,22 +902,22 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -922,25 +925,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -948,22 +951,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -974,22 +977,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1000,25 +1003,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1029,22 +1032,22 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1055,22 +1058,22 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1081,22 +1084,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1104,25 +1107,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1130,25 +1133,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1156,24 +1159,50 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Titans/Players Data.xlsx
+++ b/Base/Teams/Titans/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -35,55 +35,58 @@
     <t>R.Tannehill</t>
   </si>
   <si>
+    <t>D.Henry</t>
+  </si>
+  <si>
+    <t>K.Blasingame</t>
+  </si>
+  <si>
+    <t>D.Evans</t>
+  </si>
+  <si>
+    <t>D.Foreman</t>
+  </si>
+  <si>
+    <t>D.Hilliard</t>
+  </si>
+  <si>
+    <t>C.Rogers</t>
+  </si>
+  <si>
+    <t>R.Davis</t>
+  </si>
+  <si>
+    <t>C.Batson</t>
+  </si>
+  <si>
+    <t>M.Johnson</t>
+  </si>
+  <si>
+    <t>M.Pruitt</t>
+  </si>
+  <si>
+    <t>T.Hudson</t>
+  </si>
+  <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
+  </si>
+  <si>
     <t>J.McNichols</t>
-  </si>
-  <si>
-    <t>K.Blasingame</t>
-  </si>
-  <si>
-    <t>D.Evans</t>
-  </si>
-  <si>
-    <t>D.Foreman</t>
-  </si>
-  <si>
-    <t>D.Hilliard</t>
-  </si>
-  <si>
-    <t>C.Rogers</t>
-  </si>
-  <si>
-    <t>R.Davis</t>
-  </si>
-  <si>
-    <t>C.Batson</t>
-  </si>
-  <si>
-    <t>M.Johnson</t>
-  </si>
-  <si>
-    <t>M.Pruitt</t>
-  </si>
-  <si>
-    <t>T.Hudson</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
   </si>
   <si>
     <t>A.Brown</t>
@@ -502,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -516,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -576,16 +579,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -596,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -735,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,22 +775,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -795,25 +798,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -821,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -847,25 +850,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -873,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
       <c r="D6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -888,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -899,25 +902,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -928,22 +931,22 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -951,25 +954,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
       <c r="F9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -977,22 +980,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1003,22 +1006,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1029,25 +1032,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1058,22 +1061,22 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1084,22 +1087,22 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1110,22 +1113,22 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1133,25 +1136,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1159,25 +1162,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1185,24 +1188,50 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
